--- a/CodeSystem-cs-artregimen-lines.xlsx
+++ b/CodeSystem-cs-artregimen-lines.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T15:31:30+00:00</t>
+    <t>2023-02-09T07:17:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-artregimen-lines.xlsx
+++ b/CodeSystem-cs-artregimen-lines.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T10:24:05+00:00</t>
+    <t>2023-02-09T10:39:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-cs-artregimen-lines.xlsx
+++ b/CodeSystem-cs-artregimen-lines.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T10:39:24+00:00</t>
+    <t>2023-02-09T10:40:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
